--- a/기획/마이트앤매직/Hores of might & magic V 전투 데미지 시스템 역기획서.xlsx
+++ b/기획/마이트앤매직/Hores of might & magic V 전투 데미지 시스템 역기획서.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhgki\Documents\GitHub\unityenginebasic_9th\기획\마이트앤매직\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\마이트앤매직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDC5D6-7854-4024-8FFD-48803D2F0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6E626-8EB1-417F-82EC-2906DFB69442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데미지 계산기" sheetId="3" r:id="rId1"/>
     <sheet name="유닛 능력치 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="영웅 능력치 테이블" sheetId="4" r:id="rId3"/>
+    <sheet name="기타" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="345">
   <si>
     <t>타운</t>
   </si>
@@ -1045,23 +1044,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격자=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마리(명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피해</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격자 선택=&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타운선택</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립티어</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립티어3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립티어4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립티어5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립티어6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>중립티어7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본티어</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본업글</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,8 +1182,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,8 +1317,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2016,6 +2078,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2028,7 +2118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2125,24 +2215,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2157,12 +2229,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2205,12 +2271,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2269,20 +2329,8 @@
     <xf numFmtId="9" fontId="8" fillId="15" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2356,22 +2404,87 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2390,16 +2503,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2437,76 +2540,6 @@
       <font>
         <color rgb="FFC00000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2821,7 +2854,7 @@
   <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2845,513 +2878,513 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="35">
         <v>43</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="98" t="s">
+      <c r="B3" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="90" t="str">
+      <c r="E3" s="76" t="str">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,2,0)</f>
         <v>레인저</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="73" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" s="82" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="87">
+      <c r="B5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="73">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,3,0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="67">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,7,0)</f>
         <v>0.15</v>
       </c>
-      <c r="E5" s="93">
-        <v>2</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="107" t="s">
+      <c r="E5" s="79">
+        <v>2</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="87">
         <f>IF(H3="영웅","",C39)</f>
         <v>5</v>
       </c>
-      <c r="I5" s="102" t="str">
+      <c r="I5" s="88" t="str">
         <f>IF(H3="영웅","","~")</f>
         <v>~</v>
       </c>
-      <c r="J5" s="103">
+      <c r="J5" s="89">
         <f>IF(H3="영웅",E38,C40)</f>
         <v>15</v>
       </c>
-      <c r="K5" s="99" t="s">
-        <v>332</v>
+      <c r="K5" s="85" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="74">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,4,0)</f>
         <v>2</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="68">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,8,0)</f>
         <v>0.45</v>
       </c>
-      <c r="E6" s="94">
-        <v>1</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="108" t="s">
+      <c r="E6" s="80">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="94" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="90">
         <f>IF(H3="영웅","",C37)</f>
         <v>297</v>
       </c>
-      <c r="I6" s="105" t="str">
+      <c r="I6" s="91" t="str">
         <f>IF(H3="영웅","","~")</f>
         <v>~</v>
       </c>
-      <c r="J6" s="106">
+      <c r="J6" s="92">
         <f>IF(H3="영웅",E37,C38)</f>
         <v>792</v>
       </c>
-      <c r="K6" s="100" t="s">
-        <v>333</v>
+      <c r="K6" s="86" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="74">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,5,0)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="68">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,9,0)</f>
         <v>0.1</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="80">
         <v>23</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="75">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,6,0)</f>
         <v>2</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="69">
         <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,10,0)</f>
         <v>0.3</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="81">
         <v>16</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="101" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="91" t="str">
+      <c r="C9" s="102"/>
+      <c r="D9" s="77" t="str">
         <f>IF((E5+E6+E7+E8)&gt;(C2-1),(E5+E6+E7+E8)-(C2-1),"")</f>
         <v/>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="78">
         <f>IF(E5+E6+E7+E8&gt;(C2-1),"초과",(C2-1)-E5-E6-E7-E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="46" t="str">
+      <c r="C12" s="38" t="str">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
         <v>버서커</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="46">
+      <c r="D12" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
         <v>7</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="48">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="G12" s="40" t="str">
+        <f>IF(VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
+        <v>근거리 유닛</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="44">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
         <v>7</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="45">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
         <v>25</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="50">
+      <c r="B14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="42">
         <v>4</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="44">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,9,0)</f>
         <v>3</v>
       </c>
-      <c r="F14" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="53">
+      <c r="F14" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="45">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
         <v>12</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="41" t="str">
         <f>IF(C13="중립","유닛 타입","업그레이드")</f>
         <v>업그레이드</v>
       </c>
-      <c r="C15" s="50">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="42">
+        <v>1</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="44">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
         <v>8</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="45">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
         <v>5</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="47">
         <v>99</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="49">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
         <v>6</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="58" t="str">
+      <c r="G16" s="50" t="str">
         <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
         <v>220 금</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="62" t="str">
+      <c r="C19" s="52" t="str">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
         <v>미라</v>
       </c>
-      <c r="D19" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="62">
+      <c r="D19" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="52">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
         <v>8</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="64">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="G19" s="54" t="str">
+        <f>IF(VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
+        <v>근거리 유닛</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="B20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="56">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
         <v>9</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="57">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
         <v>50</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="50">
-        <v>5</v>
-      </c>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="42">
+        <v>5</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="56">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,9,0)</f>
         <v>20</v>
       </c>
-      <c r="F21" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="67">
+      <c r="F21" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="57">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
         <v>15</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="str">
+      <c r="B22" s="41" t="str">
         <f>IF(C20="중립","유닛 타입","업그레이드")</f>
         <v>유닛 타입</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="56">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
         <v>30</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="57">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
         <v>3</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="47">
         <v>120</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="60">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
         <v>3</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="71" t="str">
+      <c r="G23" s="61" t="str">
         <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
         <v>900 금</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -3377,7 +3410,7 @@
         <f>ROUND(IF(E12+C5+E5&gt;=E20,(E15*C16)*(1+0.05*(E12+C5+E5-E20)),(E15*C16)*(1+0.05*(E20-E12+C5+E5))),0)</f>
         <v>792</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="33" t="s">
         <v>322</v>
       </c>
       <c r="E38">
@@ -3412,33 +3445,33 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" priority="11" operator="containsText" text="초과">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="초과">
       <formula>NOT(ISERROR(SEARCH("초과",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="초과">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="초과">
       <formula>NOT(ISERROR(SEARCH("초과",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="초과">
+    <cfRule type="containsText" priority="11" operator="containsText" text="초과">
       <formula>NOT(ISERROR(SEARCH("초과",D9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(D9))&gt;0</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
-      <formula>LEN(TRIM(D9))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
-      <formula>LEN(TRIM(D9))&gt;0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="초과">
+      <formula>NOT(ISERROR(SEARCH("초과",E9)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" 초과">
       <formula>NOT(ISERROR(SEARCH(" 초과",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="초과">
-      <formula>NOT(ISERROR(SEARCH("초과",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
@@ -3463,7 +3496,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"헤이븐,실반,아카데미,인퍼노,네크로폴리스,던전,포트리스,스트롱홀드"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수정 불가" prompt="타운, 레벨업 상승 능력치만 수정 가능합니다." sqref="B2 B3 B5:D9 E9 B4:E4 D3:E3" xr:uid="{FB2DEB86-6726-4043-8CE3-BBDE6A367320}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수정 불가" prompt="타운, 레벨업 상승 능력치만 수정 가능합니다." sqref="B2:B3 B5:D9 E9 B4:E4 D3:E3" xr:uid="{FB2DEB86-6726-4043-8CE3-BBDE6A367320}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격 대상자를 선택하시오." prompt="영웅_x000a_유닛" sqref="G3" xr:uid="{F3F18A3A-4CBF-4719-8654-F288AC103633}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수정 불가" prompt="수정할 수 없는 항목입니다." sqref="G5:J6" xr:uid="{4ABCF243-F0F4-49F5-BB52-9676C5B24CBA}"/>
     <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="범위 초과" error="분배할 수 있는 능력치를 초과했습니다." sqref="E5:E8" xr:uid="{FF0E775E-6C73-42C7-B524-BC8C4822361C}">
@@ -3471,7 +3504,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3531,7 +3564,7 @@
   <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3553,7 +3586,7 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3611,7 +3644,7 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="32" t="s">
         <v>316</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3662,7 +3695,7 @@
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="32" t="s">
         <v>323</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -3695,7 +3728,7 @@
       <c r="O3" s="2">
         <v>4</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="32" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3713,7 +3746,7 @@
       <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="32" t="s">
         <v>324</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -3764,7 +3797,7 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="32" t="s">
         <v>325</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -3815,7 +3848,7 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="32" t="s">
         <v>326</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -3866,7 +3899,7 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="32" t="s">
         <v>327</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -3917,7 +3950,7 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="32" t="s">
         <v>328</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -3968,7 +4001,7 @@
       <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="32" t="s">
         <v>329</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -4019,7 +4052,7 @@
       <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="32" t="s">
         <v>330</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -11762,7 +11795,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="str">
-        <f t="shared" ref="B162:B193" si="5">C162&amp;D162&amp;E162</f>
+        <f t="shared" ref="B162:B178" si="5">C162&amp;D162&amp;E162</f>
         <v>스트롱홀드21</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -12636,7 +12669,7 @@
   <dimension ref="B2:V47"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="M5" sqref="M5:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12652,15 +12685,15 @@
       <c r="B3" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="103" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -12687,18 +12720,18 @@
       <c r="I4" s="17">
         <v>7</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36" t="s">
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107" t="s">
         <v>303</v>
       </c>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="37"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="108"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
@@ -14098,4 +14131,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E5E1DC-6711-49FC-88A3-8FEF484CD842}">
+  <dimension ref="B3:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="110" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="114">
+        <v>3</v>
+      </c>
+      <c r="F4" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="114">
+        <v>4</v>
+      </c>
+      <c r="H5" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="114">
+        <v>5</v>
+      </c>
+      <c r="H6" s="112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="114">
+        <v>6</v>
+      </c>
+      <c r="H7" s="112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="109"/>
+      <c r="D13" s="114">
+        <v>1</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D14" s="114">
+        <v>2</v>
+      </c>
+      <c r="F14" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D15" s="114">
+        <v>3</v>
+      </c>
+      <c r="F15" s="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D17" s="114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D18" s="114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D19" s="114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="114">
+        <v>1</v>
+      </c>
+      <c r="P22" s="112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="114">
+        <v>2</v>
+      </c>
+      <c r="P23" s="112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O24" s="114">
+        <v>3</v>
+      </c>
+      <c r="P24" s="112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O25" s="114">
+        <v>4</v>
+      </c>
+      <c r="P25" s="112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O26" s="114">
+        <v>5</v>
+      </c>
+      <c r="P26" s="112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O27" s="114">
+        <v>6</v>
+      </c>
+      <c r="P27" s="112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O28" s="114">
+        <v>7</v>
+      </c>
+      <c r="P28" s="112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P29" s="112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P30" s="112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P31" s="113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P32" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P33" s="113">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/기획/마이트앤매직/Hores of might & magic V 전투 데미지 시스템 역기획서.xlsx
+++ b/기획/마이트앤매직/Hores of might & magic V 전투 데미지 시스템 역기획서.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\마이트앤매직\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhgki\Documents\GitHub\unityenginebasic_9th\기획\마이트앤매직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6E626-8EB1-417F-82EC-2906DFB69442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BDFC56-51FA-4B2A-909B-9AEA5E157F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데미지 계산기" sheetId="3" r:id="rId1"/>
     <sheet name="유닛 능력치 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="영웅 능력치 테이블" sheetId="4" r:id="rId3"/>
-    <sheet name="기타" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="335">
   <si>
     <t>타운</t>
   </si>
@@ -174,12 +173,6 @@
     <t>유닛 이름</t>
   </si>
   <si>
-    <t>아군 유닛 능력치</t>
-  </si>
-  <si>
-    <t>적군 유닛 능력치</t>
-  </si>
-  <si>
     <t>최소 처치 유닛</t>
   </si>
   <si>
@@ -930,15 +923,9 @@
     <t>레벨</t>
   </si>
   <si>
-    <t>영웅 레벨</t>
-  </si>
-  <si>
     <t>영웅 데미지</t>
   </si>
   <si>
-    <t>영웅 기본 능력치</t>
-  </si>
-  <si>
     <t>마력</t>
   </si>
   <si>
@@ -976,9 +963,6 @@
   </si>
   <si>
     <t>바바리안</t>
-  </si>
-  <si>
-    <t>분배 가능 능력치</t>
   </si>
   <si>
     <t>400 금</t>
@@ -989,25 +973,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영웅 클래스 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>죽인 유닛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유닛</t>
-  </si>
-  <si>
     <t>데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨업 상승 능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영웅 처치 유닛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,60 +1017,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마리(명)</t>
+    <t>능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해</t>
+    <t>상승 확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격자 선택=&gt;</t>
+    <t>공격 유닛 능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중립</t>
+    <t>공격 영웅 레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>타운선택</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>티어</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립티어</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립티어3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립티어4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립티어5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립티어6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>중립티어7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본티어</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본업글</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>공격 대상 유닛 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시전자 선택 =&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅</t>
+  </si>
+  <si>
+    <t>영웅 클래스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분배 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛의 능력치 수정 시 타운 =&gt; 티어 =&gt; 업그레이드 =&gt; 숫자 순서로 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽인 유닛의 숫자와 데미지 확인시 유닛 능력치와 영웅 능력치를 수정한 후 공격을 시전하는 대상을 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅의 능력치 수정시 레벨 =&gt; 타운 =&gt; 분배 능력치 순서로 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1161,6 +1125,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1168,7 +1140,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1176,21 +1148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="18"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,18 +1284,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -1646,11 +1623,245 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1658,9 +1869,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1672,27 +1881,245 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,7 +2133,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1719,80 +2146,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1806,6 +2159,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1816,6 +2182,165 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1824,143 +2349,11 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1969,141 +2362,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2118,7 +2379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2221,212 +2482,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="15" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2446,23 +2503,366 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="15" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2471,21 +2871,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -2520,9 +2905,19 @@
       <font>
         <color rgb="FFC00000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2540,6 +2935,11 @@
       <font>
         <color rgb="FFC00000"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2555,9 +2955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2595,7 +2995,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2701,7 +3101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2843,7 +3243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2851,656 +3251,840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K40"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
     <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="42">
+        <v>43</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="49"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="51" t="str">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,2,0)</f>
+        <v>나이트</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="54" t="str">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
+        <v>대천사</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="58" t="str">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
+        <v>아크리치</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+    </row>
+    <row r="4" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="131"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="140"/>
+      <c r="O4" s="141"/>
+    </row>
+    <row r="5" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="133">
+        <v>7</v>
+      </c>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="142">
+        <v>5</v>
+      </c>
+      <c r="N5" s="143"/>
+      <c r="O5" s="144"/>
+    </row>
+    <row r="6" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="68">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="69">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,7,0)</f>
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="127">
+        <v>2</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="66" t="str">
+        <f>IF(H4="중립","유닛 타입","업그레이드")</f>
+        <v>업그레이드</v>
+      </c>
+      <c r="H6" s="133">
+        <v>1</v>
+      </c>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="66" t="str">
+        <f>IF(M4="중립","유닛 타입","업그레이드")</f>
+        <v>업그레이드</v>
+      </c>
+      <c r="M6" s="145">
+        <v>1</v>
+      </c>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147"/>
+    </row>
+    <row r="7" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="71">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="72">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,8,0)</f>
+        <v>0.45</v>
+      </c>
+      <c r="E7" s="128">
+        <v>13</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="136">
+        <v>99</v>
+      </c>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="148">
+        <v>120</v>
+      </c>
+      <c r="N7" s="149"/>
+      <c r="O7" s="150"/>
+    </row>
+    <row r="8" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="71">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="72">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,9,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="128">
+        <v>2</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="75">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
+        <v>31</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="79">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
+        <v>19</v>
+      </c>
+      <c r="N8" s="79"/>
+      <c r="O8" s="80"/>
+    </row>
+    <row r="9" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="35">
-        <v>43</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="72" t="s">
+      <c r="C9" s="82">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="83">
+        <f>VLOOKUP('데미지 계산기'!C4,'영웅 능력치 테이블'!$M$6:$V$13,10,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="129">
+        <v>25</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="85">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
+        <v>31</v>
+      </c>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="89">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
+        <v>19</v>
+      </c>
+      <c r="N9" s="89"/>
+      <c r="O9" s="90"/>
+    </row>
+    <row r="10" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="91" t="str">
+        <f>IF(E10="초과","초과 분배 능력치","미분배 능력치")</f>
+        <v>미분배 능력치</v>
+      </c>
+      <c r="C10" s="92" t="str">
+        <f>IF((E6+E7+E8+E9)&gt;(C2-1),(E6+E7+E8+E9)-(C2-1),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93">
+        <f>IF(E6+E7+E8+E9&gt;(C2-1),"초과",(C2-1)-E6-E7-E8-E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="45"/>
+      <c r="G10" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="95" t="str">
+        <f>IF(VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,9,0)=J10,"",VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,9,0))</f>
+        <v/>
+      </c>
+      <c r="I10" s="96" t="str">
+        <f>IF(VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,9,0)=J10,"","~")</f>
+        <v/>
+      </c>
+      <c r="J10" s="97">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
+        <v>50</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="M10" s="99">
+        <f>IF(VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,9,0)=O10,"",VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,9,0))</f>
+        <v>16</v>
+      </c>
+      <c r="N10" s="100" t="str">
+        <f>IF(VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,9,0)=O10,"","~")</f>
+        <v>~</v>
+      </c>
+      <c r="O10" s="101">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="85" t="str">
+        <f>IF(VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
+        <v>근거리 유닛</v>
+      </c>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="89">
+        <f>IF(VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
+        <v>6</v>
+      </c>
+      <c r="N11" s="89"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="116"/>
+      <c r="D12" s="151" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="85">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
+        <v>220</v>
+      </c>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="89">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
+        <v>55</v>
+      </c>
+      <c r="N12" s="89"/>
+      <c r="O12" s="90"/>
+    </row>
+    <row r="13" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="85">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
+        <v>11</v>
+      </c>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="89">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
+        <v>10</v>
+      </c>
+      <c r="N13" s="89"/>
+      <c r="O13" s="90"/>
+    </row>
+    <row r="14" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="102" t="str">
+        <f>IF(D12="영웅","",C60)</f>
+        <v/>
+      </c>
+      <c r="C14" s="103" t="str">
+        <f>IF(D12="영웅","","~")</f>
+        <v/>
+      </c>
+      <c r="D14" s="104">
+        <f>IF(D12="영웅",C63,C61)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="85">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
+        <v>8</v>
+      </c>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="89">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
+    </row>
+    <row r="15" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="117" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="85">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="89">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+    </row>
+    <row r="16" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="112" t="str">
+        <f>IF(D12="영웅","",C58)</f>
+        <v/>
+      </c>
+      <c r="C16" s="113" t="str">
+        <f>IF(D12="영웅","","~")</f>
+        <v/>
+      </c>
+      <c r="D16" s="114">
+        <f>IF(D12="영웅",C62,C59)</f>
+        <v>224</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="106" t="str">
+        <f>VLOOKUP(H4&amp;H5&amp;H6,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
+        <v>3500 금 / 2 수정</v>
+      </c>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="110" t="str">
+        <f>VLOOKUP(M4&amp;M5&amp;M6,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
+        <v>850 금</v>
+      </c>
+      <c r="N16" s="110"/>
+      <c r="O16" s="111"/>
+    </row>
+    <row r="17" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+    </row>
+    <row r="19" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+    </row>
+    <row r="20" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+    </row>
+    <row r="21" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="76" t="str">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,2,0)</f>
-        <v>레인저</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="H3" s="70" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="97" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="82" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="73">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="67">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,7,0)</f>
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="79">
-        <v>2</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="93" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" s="87">
-        <f>IF(H3="영웅","",C39)</f>
-        <v>5</v>
-      </c>
-      <c r="I5" s="88" t="str">
-        <f>IF(H3="영웅","","~")</f>
-        <v>~</v>
-      </c>
-      <c r="J5" s="89">
-        <f>IF(H3="영웅",E38,C40)</f>
-        <v>15</v>
-      </c>
-      <c r="K5" s="85" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="74">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,4,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="68">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,8,0)</f>
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="80">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="94" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="90">
-        <f>IF(H3="영웅","",C37)</f>
-        <v>297</v>
-      </c>
-      <c r="I6" s="91" t="str">
-        <f>IF(H3="영웅","","~")</f>
-        <v>~</v>
-      </c>
-      <c r="J6" s="92">
-        <f>IF(H3="영웅",E37,C38)</f>
-        <v>792</v>
-      </c>
-      <c r="K6" s="86" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="74">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,5,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="68">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,9,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="80">
-        <v>23</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="8" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="75">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,6,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="69">
-        <f>VLOOKUP('데미지 계산기'!C3,'영웅 능력치 테이블'!$M$6:$V$13,10,0)</f>
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="81">
-        <v>16</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="101" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="e">
+        <f>ROUND(IF(H8+H8+E6&gt;=M9,(H10*H7)*(1+0.05*(H8+C6+E6-M9)),(H10*H7)*(1+0.05*(M9-H8+C6+E6))),0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <f>ROUND(IF(H8+C6+E6&gt;=M9,(J10*H7)*(1+0.05*(H8+C6+E6-M9)),(J10*H7)*(1+0.05*(M9-H8+C6+E6))),0)</f>
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="e">
+        <f>ROUNDDOWN(C58/M12,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61">
+        <f>ROUNDDOWN(C59/M12,0)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62">
+        <f>ROUND(VLOOKUP('데미지 계산기'!C2,'영웅 능력치 테이블'!$B$5:$I$47,'데미지 계산기'!M5+1,0)*M12,0)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="77" t="str">
-        <f>IF((E5+E6+E7+E8)&gt;(C2-1),(E5+E6+E7+E8)-(C2-1),"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="78">
-        <f>IF(E5+E6+E7+E8&gt;(C2-1),"초과",(C2-1)-E5-E6-E7-E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="38" t="str">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
-        <v>버서커</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="38">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="40" t="str">
-        <f>IF(VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
-        <v>근거리 유닛</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="44">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
-        <v>7</v>
-      </c>
-      <c r="F13" s="43" t="s">
+      <c r="C63">
+        <f>ROUNDDOWN(C62/M12,0)</f>
         <v>4</v>
       </c>
-      <c r="G13" s="45">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
-        <v>25</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="42">
-        <v>4</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="44">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,9,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="45">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
-        <v>12</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="str">
-        <f>IF(C13="중립","유닛 타입","업그레이드")</f>
-        <v>업그레이드</v>
-      </c>
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="44">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
-        <v>8</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="45">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="47">
-        <v>99</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="49">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
-        <v>6</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="50" t="str">
-        <f>VLOOKUP(C13&amp;C14&amp;C15,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
-        <v>220 금</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="52" t="str">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
-        <v>미라</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="52">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
-        <v>8</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="54" t="str">
-        <f>IF(VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
-        <v>근거리 유닛</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="56">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
-        <v>9</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="57">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
-        <v>50</v>
-      </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="42">
-        <v>5</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="56">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,9,0)</f>
-        <v>20</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="57">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
-        <v>15</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="41" t="str">
-        <f>IF(C20="중립","유닛 타입","업그레이드")</f>
-        <v>유닛 타입</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="56">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,10,0)</f>
-        <v>30</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="57">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
-        <v>3</v>
-      </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="47">
-        <v>120</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="60">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="61" t="str">
-        <f>VLOOKUP(C20&amp;C21&amp;C22,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
-        <v>900 금</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <f>ROUND(IF(E12+E12+E5&gt;=E20,(E14*C16)*(1+0.05*(E12+C5+E5-E20)),(E14*C16)*(1+0.05*(E20-E12+C5+E5))),0)</f>
-        <v>297</v>
-      </c>
-      <c r="D37" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37">
-        <f>ROUND(VLOOKUP('데미지 계산기'!C2,'영웅 능력치 테이블'!$B$5:$I$47,'데미지 계산기'!C21+1,0)*G20,0)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <f>ROUND(IF(E12+C5+E5&gt;=E20,(E15*C16)*(1+0.05*(E12+C5+E5-E20)),(E15*C16)*(1+0.05*(E20-E12+C5+E5))),0)</f>
-        <v>792</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E38">
-        <f>ROUNDDOWN(E37/G20,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39">
-        <f>ROUNDDOWN(C37/G20,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40">
-        <f>ROUNDDOWN(C38/G20,0)</f>
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="39">
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="초과">
-      <formula>NOT(ISERROR(SEARCH("초과",D9)))</formula>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
+      <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="초과">
-      <formula>NOT(ISERROR(SEARCH("초과",D9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="11" operator="containsText" text="초과">
-      <formula>NOT(ISERROR(SEARCH("초과",D9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
-      <formula>LEN(TRIM(D9))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(D9))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="6" priority="5">
+      <formula>LEN(TRIM(C10))&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="초과">
-      <formula>NOT(ISERROR(SEARCH("초과",E9)))</formula>
+  <conditionalFormatting sqref="E10 C10">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="초과">
+      <formula>NOT(ISERROR(SEARCH("초과",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" 초과">
-      <formula>NOT(ISERROR(SEARCH(" 초과",E9)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="초과">
+      <formula>NOT(ISERROR(SEARCH("초과",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="11" operator="containsText" text="초과">
+      <formula>NOT(ISERROR(SEARCH("초과",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"중립, 헤이븐, 실반, 아카데미, 인퍼노, 네크로폴리스, 던전, 포트리스, 스트롱홀드"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C21" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"1,2,3,4,5,6,7"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수정 불가" prompt="타운, 티어, 업그레이드만 수정 가능합니다." sqref="B12:G12 D13:G15 B19:G19 D20:G22 F16 D16 D23:F23" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="제한 범위를 벗어났습니다." error="(1~9999)까지 입력 가능합니다." promptTitle="입력 가능 범위" prompt="(1~9999)" sqref="C23 C16" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>1</formula1>
-      <formula2>9999</formula2>
-    </dataValidation>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="초과">
+      <formula>NOT(ISERROR(SEARCH("초과",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" 초과">
+      <formula>NOT(ISERROR(SEARCH(" 초과",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="33">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="제한 범위를 벗어났습니다." error="(1~43)까지 입력 가능합니다." promptTitle="입력 가능 범위" prompt="(1~43)" sqref="C2" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>1</formula1>
       <formula2>43</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="미분배 능력치" prompt="현재 아직 분배 되지 않은 능력치다." sqref="B10:E10" xr:uid="{76817A2F-EA09-4BEE-8949-A8110FD2D7F7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="영웅 레벨 설정" prompt="현재 영웅의 레벨을 설정할 수 있습니다." sqref="B2" xr:uid="{23EA440D-DE52-44AB-8FD2-F3AC9D503C9C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="영웅 클래스명" prompt="현재 선택된 타운의 영웅 클래스명 입니다." sqref="B3:E3" xr:uid="{263F0357-53AE-4EB5-A445-AD01E27B76EB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="타운" prompt="현재 영웅의 타운입니다." sqref="B4" xr:uid="{8BC4AFA6-C1A0-429C-B368-326CA7CED7A5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="능력치" prompt="현재 선택된 영웅의 기본 능력치 입니다._x000a_공격력 : 해당 수치 만큼 소속 유닛의 공격력을 상승시킨다._x000a_방어력 : 해당 수치 만큼 소속 유닛의 방어력을 상승시킨다._x000a_마력 : 영웅이 시전하는 마법의 데미지와 지속시간을 결정한다._x000a_지력 : 영웅의 MP 최대치를 결정한다." sqref="B5:C9" xr:uid="{A9FC21DD-646B-4D40-AC13-5E28BFB0FE27}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="능력치 상승 확률" prompt="레벨업 시 해당 능력치가 상승할 확률이다." sqref="D5:D9" xr:uid="{49FD590F-1917-4E2E-9511-46EB13C39817}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="레벨업 상승 능력치" prompt="레벨업으로 상승한 능력치이다._x000a_(총합 현재 레벨-1)" sqref="E5:E9" xr:uid="{B2D2157D-DA20-4A7B-9E60-F9A8CDB419FD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격 시전자 선택" prompt="현재 상대 유닛을 공격하는 시전자(영웅/유닛)을 선택한다." sqref="B12:C12" xr:uid="{79F8272F-E79D-4211-B341-879DC4715284}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="데미지량" prompt="해당 공격으로 입힌 데미지의 숫자다._x000a_(최소량과 최대량이 존재할 경우 모두 표기한다.)" sqref="B15:D16" xr:uid="{10BD85C7-4153-4C3B-9B8F-360EBD1BD727}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="유닛 이름" prompt="유닛의 이름이다." sqref="G3:J3" xr:uid="{4829ED34-11C8-4E74-8F3C-89A869D02AAE}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="타운" prompt="유닛의 소속 타운이다." sqref="M4:O4 H4:J4" xr:uid="{9498862B-3112-43EE-91A4-537AB4718B4A}">
+      <formula1>"중립, 헤이븐, 실반, 아카데미, 인퍼노, 네크로폴리스, 던전, 포트리스, 스트롱홀드"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="티어" prompt="유닛의 티어이다._x000a_수치가 높을 수록 고급 유닛이다." sqref="H5:J5" xr:uid="{91DD762B-D951-436A-8EDE-BDF4D105472C}">
+      <formula1>IF($H$4="중립",$A$49:$A$53,$A$47:$A$53)</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="제한 범위를 벗어났습니다." error="(1~9999)까지 입력 가능합니다." promptTitle="숫자" prompt="유닛의 숫자이다._x000a_범위(1~9999)" sqref="M7:O7 H7:J7" xr:uid="{0F547DEE-BC70-439C-8FBC-5CC7EB100354}">
+      <formula1>1</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격력" prompt="유닛의 공격력이다." sqref="G8:J8 L8:O8" xr:uid="{FF881871-3306-4604-95A8-B8DF74A46E2C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="방어력" prompt="유닛의 방어력이다." sqref="G9:J9 L9:O9" xr:uid="{F0414130-1A72-46E3-8856-844D1EA184EC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="데미지" prompt="유닛 공격시 데미지이다._x000a_(최소치와 최대치가 있을 경우 모두 표기한다.)" sqref="G10:J10 L10:O10" xr:uid="{8A6F6D4B-3785-4A5A-81B3-8A7BAC5DDFD0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="죽인 유닛 숫자" prompt="해당 공격으로 처치한 유닛의 숫자이다._x000a_(최소량과 최대량이 존재할 경우 모두 표기한다.)" sqref="B13:D14" xr:uid="{FD9D4AF1-FFA4-4F06-ADD9-033DC5B5272C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="잔탄" prompt="유닛이 원거리 공격을 할 수 있을 경우 사용되는 자원이다._x000a_(모두 소비할 경우 근접 공격만 가능하다.)" sqref="G11:J11 L11:O11" xr:uid="{8A5251B1-CAC8-49F2-82F7-F042DEBF23E3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="체력" prompt="피해를 받아 0이 될 경우 (입은 데미지/체력)만큼의 유닛이 처치된다." sqref="G12:J12 L12:O12" xr:uid="{B735C05E-9733-4A3F-B92E-A256D798A585}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="주도력" prompt="유닛이 행동할 수 있는 빈도이다." sqref="G13:J13 L13:O13" xr:uid="{901C888D-5AEA-4F9D-86CE-BBFBAC6E53FD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="속도" prompt="유닛이 전장에서 한번에 움직일 수 있는 거리이다." sqref="G14:J14 L14:O14" xr:uid="{FAFE8F31-384C-43DC-AE9F-2428B758215B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="생산력" prompt="주당 생산할 수 있는 유닛의 최대치이다." sqref="G15:J15 L15:O15" xr:uid="{63F4D2D7-3EDD-40C1-8B20-C0B939786FE6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="가격" prompt="유닛 생산시 소모되는 자원량이다." sqref="G16:J16 L16:O16" xr:uid="{3FC49487-7350-4CD8-A2B1-43180721A74D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격 유닛 능력치" prompt="공격을 하는 유닛의 능력치이다." sqref="G2:H2" xr:uid="{C19F8A92-5C37-45F1-A583-AEA7B80CE361}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격 대상 유닛 능력치" prompt="공격 받는 유닛의 능력치이다." sqref="L2:M2" xr:uid="{F0A78343-B04D-418F-BA09-8F35E523A750}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="유닛 이름" prompt="유닛의 이름이다." sqref="L3:O3" xr:uid="{2C216513-5DB9-4D28-B800-A113C603FE88}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="티어" prompt="유닛의 티어이다._x000a_수치가 높을 수록 고급 유닛이다." sqref="M5:O5" xr:uid="{6B499512-AB56-49D6-9A5B-C1746D771941}">
+      <formula1>IF($M$4="중립",$A$49:$A$53,$A$47:$A$53)</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="타운" prompt="유닛의 소속 타운이다." sqref="L4 G4" xr:uid="{588EB741-A602-473E-B000-21AFD9EEC255}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="티어" prompt="유닛의 티어이다._x000a_수치가 높을 수록 고급 유닛이다." sqref="L5 G5" xr:uid="{8B175397-B084-4286-89E6-9A9404866171}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="업그레이드/유닛 타입" prompt="유닛의 업그레이드 상태 _x000a_또는_x000a_중립 유닛의 타입이다." sqref="L6 G6" xr:uid="{2656AD05-EF37-4CAB-B6EC-4AA5EA74C271}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="제한 범위를 벗어났습니다." error="(1~9999)까지 입력 가능합니다." promptTitle="숫자" prompt="유닛의 숫자이다._x000a_범위(1~9999)" sqref="L7 G7" xr:uid="{D7620F33-58EF-45F6-B887-0C8F417CF88F}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격 시전자 선택" prompt="현재 상대 유닛을 공격하는 시전자(영웅/유닛)을 선택한다." sqref="D12" xr:uid="{A96C21D5-6668-4287-9B52-6E64AE4A1213}">
       <formula1>"영웅,유닛"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>"헤이븐,실반,아카데미,인퍼노,네크로폴리스,던전,포트리스,스트롱홀드"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수정 불가" prompt="타운, 레벨업 상승 능력치만 수정 가능합니다." sqref="B2:B3 B5:D9 E9 B4:E4 D3:E3" xr:uid="{FB2DEB86-6726-4043-8CE3-BBDE6A367320}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="공격 대상자를 선택하시오." prompt="영웅_x000a_유닛" sqref="G3" xr:uid="{F3F18A3A-4CBF-4719-8654-F288AC103633}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="수정 불가" prompt="수정할 수 없는 항목입니다." sqref="G5:J6" xr:uid="{4ABCF243-F0F4-49F5-BB52-9676C5B24CBA}"/>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="범위 초과" error="분배할 수 있는 능력치를 초과했습니다." sqref="E5:E8" xr:uid="{FF0E775E-6C73-42C7-B524-BC8C4822361C}">
-      <formula1>SUM(+$E$5:$E$8)&lt;=($C$2-1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3509,21 +4093,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{5CE031A5-E647-4CF0-A862-75DBFD749C0B}">
-            <xm:f>NOT(ISERROR(SEARCH($E$9="초과",D9)))</xm:f>
-            <xm:f>$E$9="초과"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FFC00000"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D9:E9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{C9B4281A-0F02-4929-AC55-FC9C3706D46B}">
-            <xm:f>NOT(ISERROR(SEARCH($E$9="초과",D9)))</xm:f>
-            <xm:f>$E$9="초과"</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($E$10="초과",C10)))</xm:f>
+            <xm:f>$E$10="초과"</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFC00000"/>
@@ -3535,23 +4107,41 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D9</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{5CE031A5-E647-4CF0-A862-75DBFD749C0B}">
+            <xm:f>NOT(ISERROR(SEARCH($E$10="초과",C10)))</xm:f>
+            <xm:f>$E$10="초과"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFC00000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E10 C10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="업그레이드/유닛 타입" prompt="유닛의 업그레이드 상태 _x000a_또는_x000a_중립 유닛의 타입이다." xr:uid="{49351C26-F0B7-4FF7-B512-FF0BB19C63F0}">
           <x14:formula1>
-            <xm:f>IF($C$20="중립",IF($C$21=3,'유닛 능력치 테이블'!$E$2,IF(C21=4,'유닛 능력치 테이블'!$E$3:$E$6,IF(C21=5,'유닛 능력치 테이블'!E7,IF(C21=6,'유닛 능력치 테이블'!$E$8:$E$9,IF(C21=7,'유닛 능력치 테이블'!E10,'유닛 능력치 테이블'!$B$1))))),'유닛 능력치 테이블'!E11:E13)</xm:f>
+            <xm:f>IF($H$4="중립",IF($H$5=3,'유닛 능력치 테이블'!$E$2,IF($H$5=4,'유닛 능력치 테이블'!$E$3:$E$6,IF($H$5=5,'유닛 능력치 테이블'!$E$7,IF($H$5=6,'유닛 능력치 테이블'!$E$8:$E$9,IF($H$5=7,'유닛 능력치 테이블'!$E$10,'유닛 능력치 테이블'!$B$1))))),'유닛 능력치 테이블'!E11:E13)</xm:f>
           </x14:formula1>
-          <xm:sqref>C22</xm:sqref>
+          <xm:sqref>H6:J6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C27F3B7-23BC-4A83-9E05-D797B4ABE359}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="업그레이드/유닛 타입" prompt="유닛의 업그레이드 상태 _x000a_또는_x000a_중립 유닛의 타입이다." xr:uid="{CA6D5428-7E9A-48C1-80A9-383FADAA0480}">
           <x14:formula1>
-            <xm:f>IF($C$13="중립",IF($C$14=3,'유닛 능력치 테이블'!$E$2,IF($C$14=4,'유닛 능력치 테이블'!$E$3:$E$6,IF($C$14=5,'유닛 능력치 테이블'!$E$7,IF($C$14=6,'유닛 능력치 테이블'!$E$8:$E$9,IF($C$14=7,'유닛 능력치 테이블'!$E$10,'유닛 능력치 테이블'!$B$1))))),'유닛 능력치 테이블'!E11:E13)</xm:f>
+            <xm:f>IF($M$4="중립",IF($M$5=3,'유닛 능력치 테이블'!$E$2,IF(M5=4,'유닛 능력치 테이블'!$E$3:$E$6,IF(M5=5,'유닛 능력치 테이블'!E7,IF(M5=6,'유닛 능력치 테이블'!$E$8:$E$9,IF(M5=7,'유닛 능력치 테이블'!E10,'유닛 능력치 테이블'!$B$1))))),'유닛 능력치 테이블'!E11:E13)</xm:f>
           </x14:formula1>
-          <xm:sqref>C15</xm:sqref>
+          <xm:sqref>M6:O6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="타운" prompt="현재 영웅의 타운입니다." xr:uid="{F14B83FB-CC52-4B23-A7D3-7F6A13A9DF8C}">
+          <x14:formula1>
+            <xm:f>'영웅 능력치 테이블'!$M$6:$M$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3564,7 +4154,7 @@
   <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3639,13 +4229,13 @@
         <v>중립3늑대</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -3678,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3690,13 +4280,13 @@
         <v>중립4대기의 정령</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -3729,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -3741,13 +4331,13 @@
         <v>중립4대지의 정령</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -3780,7 +4370,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3792,13 +4382,13 @@
         <v>중립4불의 정령</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -3831,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -3843,13 +4433,13 @@
         <v>중립4물의 정령</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -3882,7 +4472,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3894,13 +4484,13 @@
         <v>중립5미라</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -3933,7 +4523,7 @@
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3945,13 +4535,13 @@
         <v>중립6죽음의 기사</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
@@ -3984,7 +4574,7 @@
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3996,13 +4586,13 @@
         <v>중립6만티코어</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -4035,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4047,13 +4637,13 @@
         <v>중립7피닉스</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
@@ -4086,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -4098,13 +4688,13 @@
         <v>헤이븐1기본</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>23</v>
@@ -4137,7 +4727,7 @@
         <v>22</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -4149,7 +4739,7 @@
         <v>헤이븐11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -4188,7 +4778,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -4200,7 +4790,7 @@
         <v>헤이븐12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -4239,7 +4829,7 @@
         <v>22</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -4251,13 +4841,13 @@
         <v>헤이븐2기본</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>26</v>
@@ -4290,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -4302,7 +4892,7 @@
         <v>헤이븐21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -4341,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4353,7 +4943,7 @@
         <v>헤이븐22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -4392,7 +4982,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -4404,13 +4994,13 @@
         <v>헤이븐3기본</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>29</v>
@@ -4443,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -4455,7 +5045,7 @@
         <v>헤이븐31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -4494,7 +5084,7 @@
         <v>10</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -4506,7 +5096,7 @@
         <v>헤이븐32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -4545,7 +5135,7 @@
         <v>10</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -4557,13 +5147,13 @@
         <v>헤이븐4기본</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>32</v>
@@ -4596,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -4608,7 +5198,7 @@
         <v>헤이븐41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -4647,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -4659,7 +5249,7 @@
         <v>헤이븐42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -4698,7 +5288,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -4710,13 +5300,13 @@
         <v>헤이븐5기본</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>35</v>
@@ -4749,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -4761,7 +5351,7 @@
         <v>헤이븐51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -4800,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -4812,7 +5402,7 @@
         <v>헤이븐52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -4851,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -4863,13 +5453,13 @@
         <v>헤이븐6기본</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
@@ -4902,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -4914,7 +5504,7 @@
         <v>헤이븐61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
         <v>6</v>
@@ -4953,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -4965,7 +5555,7 @@
         <v>헤이븐62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
         <v>6</v>
@@ -5004,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -5016,13 +5606,13 @@
         <v>헤이븐7기본</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2">
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>41</v>
@@ -5055,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -5067,7 +5657,7 @@
         <v>헤이븐71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2">
         <v>7</v>
@@ -5106,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -5118,7 +5708,7 @@
         <v>헤이븐72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="2">
         <v>7</v>
@@ -5157,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -5169,16 +5759,16 @@
         <v>실반1기본</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -5208,7 +5798,7 @@
         <v>10</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -5220,7 +5810,7 @@
         <v>실반11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -5229,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
@@ -5259,7 +5849,7 @@
         <v>10</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -5271,7 +5861,7 @@
         <v>실반12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -5280,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -5310,7 +5900,7 @@
         <v>10</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -5322,16 +5912,16 @@
         <v>실반2기본</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
@@ -5361,7 +5951,7 @@
         <v>9</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -5373,7 +5963,7 @@
         <v>실반21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -5382,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G36" s="2">
         <v>5</v>
@@ -5412,7 +6002,7 @@
         <v>9</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -5424,7 +6014,7 @@
         <v>실반22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -5433,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G37" s="2">
         <v>6</v>
@@ -5463,7 +6053,7 @@
         <v>9</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5475,16 +6065,16 @@
         <v>실반3기본</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G38" s="2">
         <v>4</v>
@@ -5514,7 +6104,7 @@
         <v>7</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -5526,7 +6116,7 @@
         <v>실반31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -5535,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" s="2">
         <v>5</v>
@@ -5565,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -5577,7 +6167,7 @@
         <v>실반32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -5586,7 +6176,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
@@ -5616,7 +6206,7 @@
         <v>7</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -5628,16 +6218,16 @@
         <v>실반4기본</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" s="2">
         <v>7</v>
@@ -5667,7 +6257,7 @@
         <v>4</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -5679,7 +6269,7 @@
         <v>실반41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
@@ -5688,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G42" s="2">
         <v>12</v>
@@ -5718,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5730,7 +6320,7 @@
         <v>실반42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" s="2">
         <v>4</v>
@@ -5739,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2">
         <v>12</v>
@@ -5769,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -5781,16 +6371,16 @@
         <v>실반5기본</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G44" s="2">
         <v>12</v>
@@ -5820,7 +6410,7 @@
         <v>3</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -5832,7 +6422,7 @@
         <v>실반51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2">
         <v>5</v>
@@ -5841,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G45" s="2">
         <v>17</v>
@@ -5871,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -5883,7 +6473,7 @@
         <v>실반52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
@@ -5892,7 +6482,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G46" s="2">
         <v>15</v>
@@ -5922,7 +6512,7 @@
         <v>3</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -5934,16 +6524,16 @@
         <v>실반6기본</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="2">
         <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G47" s="2">
         <v>19</v>
@@ -5973,7 +6563,7 @@
         <v>2</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -5985,7 +6575,7 @@
         <v>실반61</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2">
         <v>6</v>
@@ -5994,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G48" s="2">
         <v>19</v>
@@ -6024,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -6036,7 +6626,7 @@
         <v>실반62</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="2">
         <v>6</v>
@@ -6045,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G49" s="2">
         <v>21</v>
@@ -6075,7 +6665,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -6087,16 +6677,16 @@
         <v>실반7기본</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="2">
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G50" s="2">
         <v>27</v>
@@ -6126,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -6138,7 +6728,7 @@
         <v>실반71</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="2">
         <v>7</v>
@@ -6147,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G51" s="2">
         <v>31</v>
@@ -6177,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -6189,7 +6779,7 @@
         <v>실반72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
         <v>7</v>
@@ -6198,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G52" s="2">
         <v>30</v>
@@ -6228,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -6240,16 +6830,16 @@
         <v>아카데미1기본</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -6279,7 +6869,7 @@
         <v>20</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -6291,7 +6881,7 @@
         <v>아카데미11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -6300,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G54" s="2">
         <v>3</v>
@@ -6330,7 +6920,7 @@
         <v>20</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -6342,7 +6932,7 @@
         <v>아카데미12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -6351,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G55" s="2">
         <v>5</v>
@@ -6381,7 +6971,7 @@
         <v>20</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -6393,16 +6983,16 @@
         <v>아카데미2기본</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -6432,7 +7022,7 @@
         <v>14</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -6444,7 +7034,7 @@
         <v>아카데미21</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
@@ -6453,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
@@ -6483,7 +7073,7 @@
         <v>14</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -6495,7 +7085,7 @@
         <v>아카데미22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
@@ -6504,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -6534,7 +7124,7 @@
         <v>14</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -6546,16 +7136,16 @@
         <v>아카데미3기본</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D59" s="2">
         <v>3</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G59" s="2">
         <v>5</v>
@@ -6585,7 +7175,7 @@
         <v>9</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -6597,7 +7187,7 @@
         <v>아카데미31</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D60" s="2">
         <v>3</v>
@@ -6606,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G60" s="2">
         <v>6</v>
@@ -6636,7 +7226,7 @@
         <v>9</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -6648,7 +7238,7 @@
         <v>아카데미32</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D61" s="2">
         <v>3</v>
@@ -6657,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G61" s="2">
         <v>6</v>
@@ -6687,7 +7277,7 @@
         <v>9</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -6699,16 +7289,16 @@
         <v>아카데미4기본</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D62" s="2">
         <v>4</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62" s="2">
         <v>10</v>
@@ -6738,7 +7328,7 @@
         <v>5</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -6750,7 +7340,7 @@
         <v>아카데미41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D63" s="2">
         <v>4</v>
@@ -6759,7 +7349,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G63" s="2">
         <v>10</v>
@@ -6789,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -6801,7 +7391,7 @@
         <v>아카데미42</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2">
         <v>4</v>
@@ -6810,7 +7400,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G64" s="2">
         <v>12</v>
@@ -6840,7 +7430,7 @@
         <v>5</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -6852,16 +7442,16 @@
         <v>아카데미5기본</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D65" s="2">
         <v>5</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G65" s="2">
         <v>11</v>
@@ -6891,7 +7481,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -6903,7 +7493,7 @@
         <v>아카데미51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -6912,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G66" s="2">
         <v>14</v>
@@ -6942,7 +7532,7 @@
         <v>3</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -6954,7 +7544,7 @@
         <v>아카데미52</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67" s="2">
         <v>5</v>
@@ -6963,7 +7553,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G67" s="2">
         <v>13</v>
@@ -6993,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -7005,16 +7595,16 @@
         <v>아카데미6기본</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D68" s="2">
         <v>6</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G68" s="2">
         <v>25</v>
@@ -7044,7 +7634,7 @@
         <v>2</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -7056,7 +7646,7 @@
         <v>아카데미61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2">
         <v>6</v>
@@ -7065,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G69" s="2">
         <v>25</v>
@@ -7095,7 +7685,7 @@
         <v>2</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -7107,7 +7697,7 @@
         <v>아카데미62</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D70" s="2">
         <v>6</v>
@@ -7116,7 +7706,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G70" s="2">
         <v>27</v>
@@ -7146,7 +7736,7 @@
         <v>2</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -7158,16 +7748,16 @@
         <v>아카데미7기본</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D71" s="2">
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G71" s="2">
         <v>20</v>
@@ -7197,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -7209,7 +7799,7 @@
         <v>아카데미71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D72" s="2">
         <v>7</v>
@@ -7218,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G72" s="2">
         <v>30</v>
@@ -7248,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -7260,7 +7850,7 @@
         <v>아카데미72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D73" s="2">
         <v>7</v>
@@ -7269,7 +7859,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G73" s="2">
         <v>30</v>
@@ -7299,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -7311,16 +7901,16 @@
         <v>인퍼노1기본</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G74" s="2">
         <v>2</v>
@@ -7350,7 +7940,7 @@
         <v>16</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -7362,7 +7952,7 @@
         <v>인퍼노11</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -7371,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G75" s="2">
         <v>3</v>
@@ -7401,7 +7991,7 @@
         <v>16</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -7413,7 +8003,7 @@
         <v>인퍼노12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
@@ -7422,7 +8012,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -7452,7 +8042,7 @@
         <v>16</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -7464,16 +8054,16 @@
         <v>인퍼노2기본</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G77" s="2">
         <v>1</v>
@@ -7503,7 +8093,7 @@
         <v>15</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -7515,7 +8105,7 @@
         <v>인퍼노21</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
@@ -7524,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G78" s="2">
         <v>3</v>
@@ -7554,7 +8144,7 @@
         <v>15</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -7566,7 +8156,7 @@
         <v>인퍼노22</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
@@ -7575,7 +8165,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G79" s="2">
         <v>3</v>
@@ -7605,7 +8195,7 @@
         <v>15</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -7617,16 +8207,16 @@
         <v>인퍼노3기본</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" s="2">
         <v>3</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G80" s="2">
         <v>4</v>
@@ -7656,7 +8246,7 @@
         <v>8</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -7668,7 +8258,7 @@
         <v>인퍼노31</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D81" s="2">
         <v>3</v>
@@ -7677,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G81" s="2">
         <v>4</v>
@@ -7707,7 +8297,7 @@
         <v>8</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -7719,7 +8309,7 @@
         <v>인퍼노32</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D82" s="2">
         <v>3</v>
@@ -7728,7 +8318,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G82" s="2">
         <v>4</v>
@@ -7758,7 +8348,7 @@
         <v>8</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -7770,16 +8360,16 @@
         <v>인퍼노4기본</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D83" s="2">
         <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G83" s="2">
         <v>6</v>
@@ -7809,7 +8399,7 @@
         <v>5</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -7821,7 +8411,7 @@
         <v>인퍼노41</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84" s="2">
         <v>4</v>
@@ -7830,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G84" s="2">
         <v>6</v>
@@ -7860,7 +8450,7 @@
         <v>5</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -7872,7 +8462,7 @@
         <v>인퍼노42</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85" s="2">
         <v>4</v>
@@ -7881,7 +8471,7 @@
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G85" s="2">
         <v>6</v>
@@ -7911,7 +8501,7 @@
         <v>5</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -7923,16 +8513,16 @@
         <v>인퍼노5기본</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D86" s="2">
         <v>5</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G86" s="2">
         <v>13</v>
@@ -7962,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -7974,7 +8564,7 @@
         <v>인퍼노51</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D87" s="2">
         <v>5</v>
@@ -7983,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G87" s="2">
         <v>18</v>
@@ -8013,7 +8603,7 @@
         <v>3</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -8025,7 +8615,7 @@
         <v>인퍼노52</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2">
         <v>5</v>
@@ -8034,7 +8624,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G88" s="2">
         <v>18</v>
@@ -8064,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -8076,16 +8666,16 @@
         <v>인퍼노6기본</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D89" s="2">
         <v>6</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G89" s="2">
         <v>21</v>
@@ -8115,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -8127,7 +8717,7 @@
         <v>인퍼노61</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D90" s="2">
         <v>6</v>
@@ -8136,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G90" s="2">
         <v>22</v>
@@ -8166,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -8178,7 +8768,7 @@
         <v>인퍼노62</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D91" s="2">
         <v>6</v>
@@ -8187,7 +8777,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G91" s="2">
         <v>27</v>
@@ -8217,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -8229,16 +8819,16 @@
         <v>인퍼노7기본</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D92" s="2">
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G92" s="2">
         <v>27</v>
@@ -8268,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -8280,7 +8870,7 @@
         <v>인퍼노71</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D93" s="2">
         <v>7</v>
@@ -8289,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G93" s="2">
         <v>32</v>
@@ -8319,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -8331,7 +8921,7 @@
         <v>인퍼노72</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D94" s="2">
         <v>7</v>
@@ -8340,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G94" s="2">
         <v>32</v>
@@ -8370,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -8382,16 +8972,16 @@
         <v>네크로폴리스1기본</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G95" s="2">
         <v>1</v>
@@ -8421,7 +9011,7 @@
         <v>20</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -8433,7 +9023,7 @@
         <v>네크로폴리스11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
@@ -8442,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G96" s="2">
         <v>1</v>
@@ -8472,7 +9062,7 @@
         <v>20</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -8484,7 +9074,7 @@
         <v>네크로폴리스12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
@@ -8493,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G97" s="2">
         <v>2</v>
@@ -8523,7 +9113,7 @@
         <v>20</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -8535,16 +9125,16 @@
         <v>네크로폴리스2기본</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -8574,7 +9164,7 @@
         <v>15</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -8586,7 +9176,7 @@
         <v>네크로폴리스21</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D99" s="2">
         <v>2</v>
@@ -8595,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G99" s="2">
         <v>2</v>
@@ -8625,7 +9215,7 @@
         <v>15</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -8637,7 +9227,7 @@
         <v>네크로폴리스22</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D100" s="2">
         <v>2</v>
@@ -8646,7 +9236,7 @@
         <v>2</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G100" s="2">
         <v>2</v>
@@ -8676,7 +9266,7 @@
         <v>15</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -8688,16 +9278,16 @@
         <v>네크로폴리스3기본</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D101" s="2">
         <v>3</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G101" s="2">
         <v>5</v>
@@ -8727,7 +9317,7 @@
         <v>9</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -8739,7 +9329,7 @@
         <v>네크로폴리스31</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D102" s="2">
         <v>3</v>
@@ -8748,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G102" s="2">
         <v>5</v>
@@ -8778,7 +9368,7 @@
         <v>9</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -8790,7 +9380,7 @@
         <v>네크로폴리스32</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D103" s="2">
         <v>3</v>
@@ -8799,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G103" s="2">
         <v>6</v>
@@ -8829,7 +9419,7 @@
         <v>9</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -8841,16 +9431,16 @@
         <v>네크로폴리스4기본</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D104" s="2">
         <v>4</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G104" s="2">
         <v>6</v>
@@ -8880,7 +9470,7 @@
         <v>5</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -8892,7 +9482,7 @@
         <v>네크로폴리스41</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D105" s="2">
         <v>4</v>
@@ -8901,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G105" s="2">
         <v>9</v>
@@ -8931,7 +9521,7 @@
         <v>5</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -8943,7 +9533,7 @@
         <v>네크로폴리스42</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D106" s="2">
         <v>4</v>
@@ -8952,7 +9542,7 @@
         <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G106" s="2">
         <v>9</v>
@@ -8982,7 +9572,7 @@
         <v>5</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -8994,16 +9584,16 @@
         <v>네크로폴리스5기본</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D107" s="2">
         <v>5</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G107" s="2">
         <v>15</v>
@@ -9033,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -9045,7 +9635,7 @@
         <v>네크로폴리스51</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D108" s="2">
         <v>5</v>
@@ -9054,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G108" s="2">
         <v>19</v>
@@ -9084,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -9096,7 +9686,7 @@
         <v>네크로폴리스52</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D109" s="2">
         <v>5</v>
@@ -9105,7 +9695,7 @@
         <v>2</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G109" s="2">
         <v>21</v>
@@ -9135,7 +9725,7 @@
         <v>3</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -9147,16 +9737,16 @@
         <v>네크로폴리스6기본</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D110" s="2">
         <v>6</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G110" s="2">
         <v>24</v>
@@ -9186,7 +9776,7 @@
         <v>2</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -9198,7 +9788,7 @@
         <v>네크로폴리스61</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D111" s="2">
         <v>6</v>
@@ -9207,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G111" s="2">
         <v>26</v>
@@ -9237,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -9249,7 +9839,7 @@
         <v>네크로폴리스62</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D112" s="2">
         <v>6</v>
@@ -9258,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G112" s="2">
         <v>23</v>
@@ -9288,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -9300,16 +9890,16 @@
         <v>네크로폴리스7기본</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D113" s="2">
         <v>7</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G113" s="2">
         <v>27</v>
@@ -9339,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -9351,7 +9941,7 @@
         <v>네크로폴리스71</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D114" s="2">
         <v>7</v>
@@ -9360,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G114" s="2">
         <v>30</v>
@@ -9390,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -9402,7 +9992,7 @@
         <v>네크로폴리스72</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D115" s="2">
         <v>7</v>
@@ -9411,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G115" s="2">
         <v>31</v>
@@ -9441,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -9453,16 +10043,16 @@
         <v>던전1기본</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G116" s="2">
         <v>3</v>
@@ -9492,7 +10082,7 @@
         <v>7</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -9504,7 +10094,7 @@
         <v>던전11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D117" s="2">
         <v>1</v>
@@ -9513,7 +10103,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G117" s="2">
         <v>4</v>
@@ -9543,7 +10133,7 @@
         <v>7</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -9555,7 +10145,7 @@
         <v>던전12</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
@@ -9564,7 +10154,7 @@
         <v>2</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G118" s="2">
         <v>5</v>
@@ -9594,7 +10184,7 @@
         <v>7</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -9606,16 +10196,16 @@
         <v>던전2기본</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G119" s="2">
         <v>4</v>
@@ -9645,7 +10235,7 @@
         <v>5</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -9657,7 +10247,7 @@
         <v>던전21</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D120" s="2">
         <v>2</v>
@@ -9666,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G120" s="2">
         <v>5</v>
@@ -9696,7 +10286,7 @@
         <v>5</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -9708,7 +10298,7 @@
         <v>던전22</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D121" s="2">
         <v>2</v>
@@ -9717,7 +10307,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G121" s="2">
         <v>5</v>
@@ -9747,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -9759,16 +10349,16 @@
         <v>던전3기본</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D122" s="2">
         <v>3</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G122" s="2">
         <v>5</v>
@@ -9798,7 +10388,7 @@
         <v>6</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -9810,7 +10400,7 @@
         <v>던전31</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D123" s="2">
         <v>3</v>
@@ -9819,7 +10409,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G123" s="2">
         <v>5</v>
@@ -9849,7 +10439,7 @@
         <v>6</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
@@ -9861,7 +10451,7 @@
         <v>던전32</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D124" s="2">
         <v>3</v>
@@ -9870,7 +10460,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G124" s="2">
         <v>6</v>
@@ -9900,7 +10490,7 @@
         <v>6</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
@@ -9912,16 +10502,16 @@
         <v>던전4기본</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D125" s="2">
         <v>4</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G125" s="2">
         <v>9</v>
@@ -9951,7 +10541,7 @@
         <v>4</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -9963,7 +10553,7 @@
         <v>던전41</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D126" s="2">
         <v>4</v>
@@ -9972,7 +10562,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G126" s="2">
         <v>10</v>
@@ -10002,7 +10592,7 @@
         <v>4</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -10014,7 +10604,7 @@
         <v>던전42</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D127" s="2">
         <v>4</v>
@@ -10023,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G127" s="2">
         <v>12</v>
@@ -10053,7 +10643,7 @@
         <v>4</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
@@ -10065,16 +10655,16 @@
         <v>던전5기본</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D128" s="2">
         <v>5</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G128" s="2">
         <v>15</v>
@@ -10104,7 +10694,7 @@
         <v>3</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
@@ -10116,7 +10706,7 @@
         <v>던전51</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D129" s="2">
         <v>5</v>
@@ -10125,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G129" s="2">
         <v>15</v>
@@ -10155,7 +10745,7 @@
         <v>3</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
@@ -10167,7 +10757,7 @@
         <v>던전52</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D130" s="2">
         <v>5</v>
@@ -10176,7 +10766,7 @@
         <v>2</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G130" s="2">
         <v>15</v>
@@ -10206,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -10218,16 +10808,16 @@
         <v>던전6기본</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D131" s="2">
         <v>6</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G131" s="2">
         <v>18</v>
@@ -10257,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -10269,7 +10859,7 @@
         <v>던전61</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D132" s="2">
         <v>6</v>
@@ -10278,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G132" s="2">
         <v>20</v>
@@ -10308,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
@@ -10320,7 +10910,7 @@
         <v>던전62</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D133" s="2">
         <v>6</v>
@@ -10329,7 +10919,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G133" s="2">
         <v>20</v>
@@ -10359,7 +10949,7 @@
         <v>2</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -10371,16 +10961,16 @@
         <v>던전7기본</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D134" s="2">
         <v>7</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G134" s="2">
         <v>25</v>
@@ -10410,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
@@ -10422,7 +11012,7 @@
         <v>던전71</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D135" s="2">
         <v>7</v>
@@ -10431,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G135" s="2">
         <v>30</v>
@@ -10461,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
@@ -10473,7 +11063,7 @@
         <v>던전72</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D136" s="2">
         <v>7</v>
@@ -10482,7 +11072,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G136" s="2">
         <v>30</v>
@@ -10512,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
@@ -10524,16 +11114,16 @@
         <v>포트리스1기본</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D137" s="2">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G137" s="2">
         <v>1</v>
@@ -10563,7 +11153,7 @@
         <v>18</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
@@ -10575,7 +11165,7 @@
         <v>포트리스11</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D138" s="2">
         <v>1</v>
@@ -10584,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G138" s="2">
         <v>1</v>
@@ -10614,7 +11204,7 @@
         <v>7</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
@@ -10626,7 +11216,7 @@
         <v>포트리스12</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
@@ -10635,7 +11225,7 @@
         <v>2</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G139" s="2">
         <v>2</v>
@@ -10665,7 +11255,7 @@
         <v>7</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
@@ -10677,16 +11267,16 @@
         <v>포트리스2기본</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D140" s="2">
         <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G140" s="2">
         <v>4</v>
@@ -10716,7 +11306,7 @@
         <v>14</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
@@ -10728,7 +11318,7 @@
         <v>포트리스21</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D141" s="2">
         <v>2</v>
@@ -10737,7 +11327,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G141" s="2">
         <v>4</v>
@@ -10767,7 +11357,7 @@
         <v>14</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -10779,7 +11369,7 @@
         <v>포트리스22</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
@@ -10788,7 +11378,7 @@
         <v>2</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G142" s="2">
         <v>5</v>
@@ -10818,7 +11408,7 @@
         <v>14</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
@@ -10830,16 +11420,16 @@
         <v>포트리스3기본</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D143" s="2">
         <v>3</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G143" s="2">
         <v>5</v>
@@ -10869,7 +11459,7 @@
         <v>7</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
@@ -10881,7 +11471,7 @@
         <v>포트리스31</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D144" s="2">
         <v>3</v>
@@ -10890,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G144" s="2">
         <v>6</v>
@@ -10920,7 +11510,7 @@
         <v>7</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
@@ -10932,7 +11522,7 @@
         <v>포트리스32</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D145" s="2">
         <v>3</v>
@@ -10941,7 +11531,7 @@
         <v>2</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G145" s="2">
         <v>8</v>
@@ -10971,7 +11561,7 @@
         <v>7</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -10983,16 +11573,16 @@
         <v>포트리스4기본</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D146" s="2">
         <v>4</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G146" s="2">
         <v>6</v>
@@ -11022,7 +11612,7 @@
         <v>6</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
@@ -11034,7 +11624,7 @@
         <v>포트리스41</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D147" s="2">
         <v>4</v>
@@ -11043,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G147" s="2">
         <v>7</v>
@@ -11073,7 +11663,7 @@
         <v>6</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
@@ -11085,7 +11675,7 @@
         <v>포트리스42</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D148" s="2">
         <v>4</v>
@@ -11094,7 +11684,7 @@
         <v>2</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G148" s="2">
         <v>7</v>
@@ -11124,7 +11714,7 @@
         <v>6</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
@@ -11136,16 +11726,16 @@
         <v>포트리스5기본</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D149" s="2">
         <v>5</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G149" s="2">
         <v>10</v>
@@ -11175,7 +11765,7 @@
         <v>3</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
@@ -11187,7 +11777,7 @@
         <v>포트리스51</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D150" s="2">
         <v>5</v>
@@ -11196,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G150" s="2">
         <v>9</v>
@@ -11226,7 +11816,7 @@
         <v>3</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
@@ -11238,7 +11828,7 @@
         <v>포트리스52</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D151" s="2">
         <v>5</v>
@@ -11247,7 +11837,7 @@
         <v>2</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G151" s="2">
         <v>10</v>
@@ -11277,7 +11867,7 @@
         <v>3</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
@@ -11289,16 +11879,16 @@
         <v>포트리스6기본</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D152" s="2">
         <v>6</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G152" s="2">
         <v>15</v>
@@ -11328,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
@@ -11340,7 +11930,7 @@
         <v>포트리스61</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D153" s="2">
         <v>6</v>
@@ -11349,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G153" s="2">
         <v>15</v>
@@ -11379,7 +11969,7 @@
         <v>2</v>
       </c>
       <c r="P153" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
@@ -11391,7 +11981,7 @@
         <v>포트리스62</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D154" s="2">
         <v>6</v>
@@ -11400,7 +11990,7 @@
         <v>2</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G154" s="2">
         <v>16</v>
@@ -11430,7 +12020,7 @@
         <v>2</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
@@ -11442,16 +12032,16 @@
         <v>포트리스7기본</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D155" s="2">
         <v>7</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G155" s="2">
         <v>25</v>
@@ -11481,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
@@ -11493,7 +12083,7 @@
         <v>포트리스71</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D156" s="2">
         <v>7</v>
@@ -11502,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G156" s="2">
         <v>30</v>
@@ -11532,7 +12122,7 @@
         <v>1</v>
       </c>
       <c r="P156" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
@@ -11544,7 +12134,7 @@
         <v>포트리스72</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D157" s="2">
         <v>7</v>
@@ -11553,7 +12143,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G157" s="2">
         <v>30</v>
@@ -11583,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
@@ -11595,16 +12185,16 @@
         <v>스트롱홀드1기본</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D158" s="2">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G158" s="2">
         <v>1</v>
@@ -11634,7 +12224,7 @@
         <v>25</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
@@ -11646,7 +12236,7 @@
         <v>스트롱홀드11</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D159" s="2">
         <v>1</v>
@@ -11655,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G159" s="2">
         <v>1</v>
@@ -11685,7 +12275,7 @@
         <v>25</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
@@ -11697,7 +12287,7 @@
         <v>스트롱홀드12</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D160" s="2">
         <v>1</v>
@@ -11706,7 +12296,7 @@
         <v>2</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G160" s="2">
         <v>2</v>
@@ -11736,7 +12326,7 @@
         <v>25</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -11748,16 +12338,16 @@
         <v>스트롱홀드2기본</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D161" s="2">
         <v>2</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G161" s="2">
         <v>3</v>
@@ -11787,7 +12377,7 @@
         <v>14</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -11799,7 +12389,7 @@
         <v>스트롱홀드21</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D162" s="2">
         <v>2</v>
@@ -11808,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G162" s="2">
         <v>4</v>
@@ -11838,7 +12428,7 @@
         <v>14</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
@@ -11850,7 +12440,7 @@
         <v>스트롱홀드22</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D163" s="2">
         <v>2</v>
@@ -11859,7 +12449,7 @@
         <v>2</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G163" s="2">
         <v>4</v>
@@ -11889,7 +12479,7 @@
         <v>14</v>
       </c>
       <c r="P163" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
@@ -11901,16 +12491,16 @@
         <v>스트롱홀드3기본</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D164" s="2">
         <v>3</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G164" s="2">
         <v>5</v>
@@ -11940,7 +12530,7 @@
         <v>11</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -11952,7 +12542,7 @@
         <v>스트롱홀드31</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D165" s="2">
         <v>3</v>
@@ -11961,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G165" s="2">
         <v>6</v>
@@ -11991,7 +12581,7 @@
         <v>11</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
@@ -12003,7 +12593,7 @@
         <v>스트롱홀드32</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D166" s="2">
         <v>3</v>
@@ -12012,7 +12602,7 @@
         <v>2</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G166" s="2">
         <v>4</v>
@@ -12042,7 +12632,7 @@
         <v>11</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
@@ -12054,16 +12644,16 @@
         <v>스트롱홀드4기본</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D167" s="2">
         <v>4</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G167" s="2">
         <v>5</v>
@@ -12093,7 +12683,7 @@
         <v>5</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
@@ -12105,7 +12695,7 @@
         <v>스트롱홀드41</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D168" s="2">
         <v>4</v>
@@ -12114,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G168" s="2">
         <v>7</v>
@@ -12144,7 +12734,7 @@
         <v>5</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -12156,7 +12746,7 @@
         <v>스트롱홀드42</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D169" s="2">
         <v>4</v>
@@ -12165,7 +12755,7 @@
         <v>2</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G169" s="2">
         <v>10</v>
@@ -12195,7 +12785,7 @@
         <v>5</v>
       </c>
       <c r="P169" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
@@ -12207,16 +12797,16 @@
         <v>스트롱홀드5기본</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D170" s="2">
         <v>5</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G170" s="2">
         <v>11</v>
@@ -12246,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
@@ -12258,7 +12848,7 @@
         <v>스트롱홀드51</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D171" s="2">
         <v>5</v>
@@ -12267,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G171" s="2">
         <v>14</v>
@@ -12297,7 +12887,7 @@
         <v>5</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
@@ -12309,7 +12899,7 @@
         <v>스트롱홀드52</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D172" s="2">
         <v>5</v>
@@ -12318,7 +12908,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G172" s="2">
         <v>13</v>
@@ -12348,7 +12938,7 @@
         <v>5</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -12360,16 +12950,16 @@
         <v>스트롱홀드6기본</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D173" s="2">
         <v>6</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G173" s="2">
         <v>17</v>
@@ -12399,7 +12989,7 @@
         <v>2</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
@@ -12411,7 +13001,7 @@
         <v>스트롱홀드61</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D174" s="2">
         <v>6</v>
@@ -12420,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G174" s="2">
         <v>21</v>
@@ -12450,7 +13040,7 @@
         <v>2</v>
       </c>
       <c r="P174" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
@@ -12462,7 +13052,7 @@
         <v>스트롱홀드62</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D175" s="2">
         <v>6</v>
@@ -12471,7 +13061,7 @@
         <v>2</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G175" s="2">
         <v>19</v>
@@ -12501,7 +13091,7 @@
         <v>2</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
@@ -12513,16 +13103,16 @@
         <v>스트롱홀드7기본</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D176" s="2">
         <v>7</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G176" s="2">
         <v>29</v>
@@ -12552,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="P176" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
@@ -12564,7 +13154,7 @@
         <v>스트롱홀드71</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D177" s="2">
         <v>7</v>
@@ -12573,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G177" s="2">
         <v>30</v>
@@ -12603,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
@@ -12615,7 +13205,7 @@
         <v>스트롱홀드72</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D178" s="2">
         <v>7</v>
@@ -12624,7 +13214,7 @@
         <v>2</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G178" s="2">
         <v>28</v>
@@ -12654,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -12683,21 +13273,21 @@
     <row r="2" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="105"/>
+        <v>293</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
@@ -12720,18 +13310,18 @@
       <c r="I4" s="17">
         <v>7</v>
       </c>
-      <c r="O4" s="106" t="s">
-        <v>304</v>
-      </c>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
+      <c r="O4" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
@@ -12762,7 +13352,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>2</v>
@@ -12771,10 +13361,10 @@
         <v>3</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="S5" s="30" t="s">
         <v>2</v>
@@ -12783,10 +13373,10 @@
         <v>3</v>
       </c>
       <c r="U5" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="V5" s="31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -12815,10 +13405,10 @@
         <v>0.15</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O6" s="21">
         <v>2</v>
@@ -12871,10 +13461,10 @@
         <v>0.19</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O7" s="21">
         <v>0</v>
@@ -12927,10 +13517,10 @@
         <v>0.24</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O8" s="21">
         <v>0</v>
@@ -12983,10 +13573,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O9" s="21">
         <v>2</v>
@@ -13039,10 +13629,10 @@
         <v>0.33</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O10" s="21">
         <v>0</v>
@@ -13095,10 +13685,10 @@
         <v>0.38</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O11" s="21">
         <v>1</v>
@@ -13151,10 +13741,10 @@
         <v>0.43</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O12" s="21">
         <v>0</v>
@@ -13207,10 +13797,10 @@
         <v>0.47</v>
       </c>
       <c r="M13" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O13" s="24">
         <v>3</v>
@@ -14131,271 +14721,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E5E1DC-6711-49FC-88A3-8FEF484CD842}">
-  <dimension ref="B3:P33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
-        <v>334</v>
-      </c>
-      <c r="D4" s="114">
-        <v>3</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="112" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="114">
-        <v>4</v>
-      </c>
-      <c r="H5" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="114">
-        <v>5</v>
-      </c>
-      <c r="H6" s="112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="114">
-        <v>6</v>
-      </c>
-      <c r="H7" s="112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="114">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="111" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="111" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="109"/>
-      <c r="D13" s="114">
-        <v>1</v>
-      </c>
-      <c r="F13" s="113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="114">
-        <v>2</v>
-      </c>
-      <c r="F14" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D15" s="114">
-        <v>3</v>
-      </c>
-      <c r="F15" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D16" s="114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D17" s="114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D18" s="114">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D19" s="114">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O21" s="33" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O22" s="114">
-        <v>1</v>
-      </c>
-      <c r="P22" s="112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O23" s="114">
-        <v>2</v>
-      </c>
-      <c r="P23" s="112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O24" s="114">
-        <v>3</v>
-      </c>
-      <c r="P24" s="112" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O25" s="114">
-        <v>4</v>
-      </c>
-      <c r="P25" s="112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O26" s="114">
-        <v>5</v>
-      </c>
-      <c r="P26" s="112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O27" s="114">
-        <v>6</v>
-      </c>
-      <c r="P27" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="O28" s="114">
-        <v>7</v>
-      </c>
-      <c r="P28" s="112" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="P29" s="112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="P30" s="112" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="P31" s="113" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="P32" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P33" s="113">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>